--- a/MainTop/23.07.2025 Таня Озон/print_print_sorted.xlsx
+++ b/MainTop/23.07.2025 Таня Озон/print_print_sorted.xlsx
@@ -5,28 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\23.07.2025 Таня Озон\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\23.07.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F99806E-7E90-4D56-B526-432DBA50B6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC78304-0C75-4127-A4FB-D9739E68F148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -783,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,25 +824,25 @@
         <v>11</v>
       </c>
       <c r="B2" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G2" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H2" s="7">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I2" s="7">
         <v>88</v>
@@ -870,25 +859,25 @@
         <v>14</v>
       </c>
       <c r="B3" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I3" s="7">
         <v>64</v>
@@ -4293,40 +4282,6 @@
       </c>
       <c r="K100" s="5" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B101">
-        <f>SUM(B2:B100)</f>
-        <v>83</v>
-      </c>
-      <c r="C101">
-        <f t="shared" ref="C101:I101" si="0">SUM(C2:C100)</f>
-        <v>87</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="I101">
-        <f t="shared" si="0"/>
-        <v>926</v>
       </c>
     </row>
   </sheetData>
